--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="TCCpUCD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>TCCpUCD Transmission Construction Cost per Unit Capacity Distance</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Annual cost (2010-2050)</t>
   </si>
   <si>
-    <t>$</t>
-  </si>
-  <si>
     <t>Total cost</t>
   </si>
   <si>
@@ -75,17 +72,35 @@
     <t>(value read from graph)</t>
   </si>
   <si>
-    <t>Cost per Unit Capacity Distance ($/(MW*mile))</t>
-  </si>
-  <si>
     <t>Transmission Construction</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
+  </si>
+  <si>
+    <t>We assume NREL's 2010-2050 figures are in real 2010 dollars.</t>
+  </si>
+  <si>
+    <t>We adjust 2010 dollars to 2012 dollars using the following conversion factor:</t>
+  </si>
+  <si>
+    <t>2010 $</t>
+  </si>
+  <si>
+    <t>2012 $</t>
+  </si>
+  <si>
+    <t>Cost per Unit Capacity Distance (2012$/(MW*mile))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +132,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -138,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -146,12 +184,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -169,10 +259,20 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Table title" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,6 +613,31 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>1.0549999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
@@ -523,7 +648,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -536,17 +661,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -572,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -584,31 +709,43 @@
         <v>6500000000</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <f>B7*(2050-2010)</f>
         <v>260000000000</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10">
+        <v>13</v>
+      </c>
+      <c r="B9" s="14">
         <f>B8/B6</f>
         <v>2131.1475409836066</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10">
+        <f>B9*About!$A$12</f>
+        <v>2248.3606557377047</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -633,16 +770,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6">
-        <f>Data!B9</f>
-        <v>2131.1475409836066</v>
+        <f>Data!B10</f>
+        <v>2248.3606557377047</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\TCCpUCD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="192" yWindow="96" windowWidth="17220" windowHeight="8208"/>
+    <workbookView xWindow="195" yWindow="98" windowWidth="17220" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="TCCpUCD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -99,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,6 +285,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -327,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,7 +370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,17 +583,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -593,47 +601,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
@@ -652,29 +660,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.53125" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -685,7 +693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -700,7 +708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -712,7 +720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -724,7 +732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -736,7 +744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
@@ -762,18 +770,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.86328125" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
